--- a/Assets/Shared/ExcelImporter/Excels/Player/ArtifactPieceDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/ArtifactPieceDataSheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwkim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32656A10-EC59-4BC2-93E4-173266689C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ArtifactPieceExcelDatas" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
   <si>
     <t>Id</t>
   </si>
@@ -137,10 +136,6 @@
   </si>
   <si>
     <t>자연=마방</t>
-  </si>
-  <si>
-    <t>ImagePath</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -195,12 +190,99 @@
     <t>마녀의 손톱</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>OnImagePath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>OffImagePath</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Archer_On</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Thief_On</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Wizard_On</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Paladin_On</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Warrior_On</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Images/Origin/Archer_O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>ff</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Images/Origin/Thief_Off</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Images/Origin/Wizard_O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ff</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Images/Origin/Paladin_O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ff</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Images/Origin/Warrior_O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ff</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -265,6 +347,13 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -325,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -361,6 +450,11 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -575,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -590,6 +684,8 @@
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -604,9 +700,11 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -632,8 +730,12 @@
       <c r="C2" s="7">
         <v>10000</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>51</v>
+      </c>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
@@ -665,8 +767,12 @@
       <c r="C3" s="8">
         <v>10000</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>52</v>
+      </c>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -696,8 +802,12 @@
       <c r="C4" s="8">
         <v>10000</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>53</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -727,8 +837,12 @@
       <c r="C5" s="8">
         <v>10000</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
@@ -758,8 +872,12 @@
       <c r="C6" s="8">
         <v>10000</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>55</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
@@ -784,13 +902,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="14">
         <v>10000</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>51</v>
+      </c>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -815,13 +937,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="14">
         <v>10000</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -846,13 +972,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="14">
         <v>10000</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -877,13 +1007,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="14">
         <v>10000</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -908,13 +1042,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="14">
         <v>10000</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>55</v>
+      </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -944,8 +1082,12 @@
       <c r="C12" s="18">
         <v>10000</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -975,8 +1117,12 @@
       <c r="C13" s="18">
         <v>10000</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -1006,8 +1152,12 @@
       <c r="C14" s="18">
         <v>10000</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
+      <c r="D14" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>53</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -1037,8 +1187,12 @@
       <c r="C15" s="18">
         <v>10000</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
+      <c r="D15" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>54</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -1068,8 +1222,12 @@
       <c r="C16" s="18">
         <v>10000</v>
       </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>

--- a/Assets/Shared/ExcelImporter/Excels/Player/ArtifactPieceDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Player/ArtifactPieceDataSheet.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungwoo\Documents\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Player\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E6DED-877E-4598-A1B3-A536F32732BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArtifactPieceExcelDatas" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Id</t>
   </si>
@@ -48,21 +49,6 @@
     <t>마력이 깃든 보석</t>
   </si>
   <si>
-    <t>공격의 돌</t>
-  </si>
-  <si>
-    <t>마법의 돌</t>
-  </si>
-  <si>
-    <t>생명의 돌</t>
-  </si>
-  <si>
-    <t>방어의 돌</t>
-  </si>
-  <si>
-    <t>저항의 돌</t>
-  </si>
-  <si>
     <t>#참고용</t>
   </si>
   <si>
@@ -136,59 +122,6 @@
   </si>
   <si>
     <t>자연=마방</t>
-  </si>
-  <si>
-    <r>
-      <t>기가막힌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 쌀국수</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>뜨거운</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 새우</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>무적의 돌</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>샤프슈터의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 활</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>마녀의 손톱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>OnImagePath</t>
@@ -281,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -669,14 +602,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -700,10 +633,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -731,10 +664,10 @@
         <v>10000</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
@@ -768,10 +701,10 @@
         <v>10000</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="10"/>
@@ -803,10 +736,10 @@
         <v>10000</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="10"/>
@@ -838,10 +771,10 @@
         <v>10000</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="10"/>
@@ -873,10 +806,10 @@
         <v>10000</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10"/>
@@ -898,21 +831,11 @@
       <c r="W6" s="8"/>
     </row>
     <row r="7" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="13">
-        <v>6</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="14">
-        <v>10000</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>51</v>
-      </c>
+      <c r="A7" s="13"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
@@ -933,21 +856,11 @@
       <c r="W7" s="14"/>
     </row>
     <row r="8" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="13">
-        <v>7</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="14">
-        <v>10000</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>52</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="15"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
@@ -968,21 +881,11 @@
       <c r="W8" s="14"/>
     </row>
     <row r="9" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="13">
-        <v>8</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="14">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>53</v>
-      </c>
+      <c r="A9" s="13"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
@@ -1003,21 +906,11 @@
       <c r="W9" s="14"/>
     </row>
     <row r="10" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="13">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="14">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>54</v>
-      </c>
+      <c r="A10" s="13"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="14"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
@@ -1038,21 +931,11 @@
       <c r="W10" s="14"/>
     </row>
     <row r="11" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="13">
-        <v>10</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="14">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>55</v>
-      </c>
+      <c r="A11" s="13"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
@@ -1073,21 +956,11 @@
       <c r="W11" s="14"/>
     </row>
     <row r="12" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
-        <v>11</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="18">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>51</v>
-      </c>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -1108,21 +981,11 @@
       <c r="W12" s="18"/>
     </row>
     <row r="13" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="18">
-        <v>10000</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -1143,21 +1006,11 @@
       <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>13</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="18">
-        <v>10000</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>53</v>
-      </c>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -1178,21 +1031,11 @@
       <c r="W14" s="18"/>
     </row>
     <row r="15" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
-        <v>14</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="18">
-        <v>10000</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>54</v>
-      </c>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -1213,21 +1056,11 @@
       <c r="W15" s="18"/>
     </row>
     <row r="16" spans="1:23" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>15</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="18">
-        <v>10000</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>55</v>
-      </c>
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -1249,7 +1082,7 @@
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1257,16 +1090,16 @@
         <v>3</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1274,109 +1107,109 @@
         <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D31" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
